--- a/Optimization models (Pyomo)/CORDOBA/CapAlmacenamientoCA.xlsx
+++ b/Optimization models (Pyomo)/CORDOBA/CapAlmacenamientoCA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UNIMAG\Desktop\HENRY\OptimizationModel\Optimization models (Pyomo)\CORDOBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF70502-AAA1-47C8-B6FB-989B8EF00D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0794088C-250E-4060-A085-6762CEC9058B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9D5CBF84-1DB5-4A88-81FD-728CAACA8C08}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="9">
   <si>
     <t>CapAlmacenamientoCA</t>
   </si>
@@ -54,42 +54,6 @@
   </si>
   <si>
     <t>SAN JORGE</t>
-  </si>
-  <si>
-    <t>Enero</t>
-  </si>
-  <si>
-    <t>Febrero</t>
-  </si>
-  <si>
-    <t>Marzo</t>
-  </si>
-  <si>
-    <t>Abril</t>
-  </si>
-  <si>
-    <t>Mayo</t>
-  </si>
-  <si>
-    <t>Junio</t>
-  </si>
-  <si>
-    <t>Julio</t>
-  </si>
-  <si>
-    <t>Agosto</t>
-  </si>
-  <si>
-    <t>Septiembre</t>
-  </si>
-  <si>
-    <t>Octubre</t>
-  </si>
-  <si>
-    <t>Noviembre</t>
-  </si>
-  <si>
-    <t>Diciembre</t>
   </si>
   <si>
     <t>Tiempo</t>
@@ -453,20 +417,20 @@
   <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2:C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -479,8 +443,8 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2">
         <v>50000</v>
@@ -493,8 +457,8 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
+      <c r="C3">
+        <v>2</v>
       </c>
       <c r="D3">
         <v>50000</v>
@@ -507,8 +471,8 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
+      <c r="C4">
+        <v>3</v>
       </c>
       <c r="D4">
         <v>50000</v>
@@ -521,8 +485,8 @@
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
+      <c r="C5">
+        <v>4</v>
       </c>
       <c r="D5">
         <v>50000</v>
@@ -535,8 +499,8 @@
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
+      <c r="C6">
+        <v>5</v>
       </c>
       <c r="D6">
         <v>50000</v>
@@ -549,8 +513,8 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
+      <c r="C7">
+        <v>6</v>
       </c>
       <c r="D7">
         <v>50000</v>
@@ -563,8 +527,8 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
-        <v>12</v>
+      <c r="C8">
+        <v>7</v>
       </c>
       <c r="D8">
         <v>50000</v>
@@ -577,8 +541,8 @@
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" t="s">
-        <v>13</v>
+      <c r="C9">
+        <v>8</v>
       </c>
       <c r="D9">
         <v>50000</v>
@@ -591,8 +555,8 @@
       <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
-        <v>14</v>
+      <c r="C10">
+        <v>9</v>
       </c>
       <c r="D10">
         <v>50000</v>
@@ -605,8 +569,8 @@
       <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="C11" t="s">
-        <v>15</v>
+      <c r="C11">
+        <v>10</v>
       </c>
       <c r="D11">
         <v>50000</v>
@@ -619,8 +583,8 @@
       <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="C12" t="s">
-        <v>16</v>
+      <c r="C12">
+        <v>11</v>
       </c>
       <c r="D12">
         <v>50000</v>
@@ -633,8 +597,8 @@
       <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="C13" t="s">
-        <v>17</v>
+      <c r="C13">
+        <v>12</v>
       </c>
       <c r="D13">
         <v>50000</v>
@@ -647,8 +611,8 @@
       <c r="B14" t="s">
         <v>4</v>
       </c>
-      <c r="C14" t="s">
-        <v>6</v>
+      <c r="C14">
+        <v>1</v>
       </c>
       <c r="D14">
         <v>50000</v>
@@ -661,8 +625,8 @@
       <c r="B15" t="s">
         <v>4</v>
       </c>
-      <c r="C15" t="s">
-        <v>7</v>
+      <c r="C15">
+        <v>2</v>
       </c>
       <c r="D15">
         <v>50000</v>
@@ -675,8 +639,8 @@
       <c r="B16" t="s">
         <v>4</v>
       </c>
-      <c r="C16" t="s">
-        <v>8</v>
+      <c r="C16">
+        <v>3</v>
       </c>
       <c r="D16">
         <v>50000</v>
@@ -689,8 +653,8 @@
       <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="C17" t="s">
-        <v>9</v>
+      <c r="C17">
+        <v>4</v>
       </c>
       <c r="D17">
         <v>50000</v>
@@ -703,8 +667,8 @@
       <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="C18" t="s">
-        <v>10</v>
+      <c r="C18">
+        <v>5</v>
       </c>
       <c r="D18">
         <v>50000</v>
@@ -717,8 +681,8 @@
       <c r="B19" t="s">
         <v>4</v>
       </c>
-      <c r="C19" t="s">
-        <v>11</v>
+      <c r="C19">
+        <v>6</v>
       </c>
       <c r="D19">
         <v>50000</v>
@@ -731,8 +695,8 @@
       <c r="B20" t="s">
         <v>4</v>
       </c>
-      <c r="C20" t="s">
-        <v>12</v>
+      <c r="C20">
+        <v>7</v>
       </c>
       <c r="D20">
         <v>50000</v>
@@ -745,8 +709,8 @@
       <c r="B21" t="s">
         <v>4</v>
       </c>
-      <c r="C21" t="s">
-        <v>13</v>
+      <c r="C21">
+        <v>8</v>
       </c>
       <c r="D21">
         <v>50000</v>
@@ -759,8 +723,8 @@
       <c r="B22" t="s">
         <v>4</v>
       </c>
-      <c r="C22" t="s">
-        <v>14</v>
+      <c r="C22">
+        <v>9</v>
       </c>
       <c r="D22">
         <v>50000</v>
@@ -773,8 +737,8 @@
       <c r="B23" t="s">
         <v>4</v>
       </c>
-      <c r="C23" t="s">
-        <v>15</v>
+      <c r="C23">
+        <v>10</v>
       </c>
       <c r="D23">
         <v>50000</v>
@@ -787,8 +751,8 @@
       <c r="B24" t="s">
         <v>4</v>
       </c>
-      <c r="C24" t="s">
-        <v>16</v>
+      <c r="C24">
+        <v>11</v>
       </c>
       <c r="D24">
         <v>50000</v>
@@ -801,8 +765,8 @@
       <c r="B25" t="s">
         <v>4</v>
       </c>
-      <c r="C25" t="s">
-        <v>17</v>
+      <c r="C25">
+        <v>12</v>
       </c>
       <c r="D25">
         <v>50000</v>
@@ -815,8 +779,8 @@
       <c r="B26" t="s">
         <v>5</v>
       </c>
-      <c r="C26" t="s">
-        <v>6</v>
+      <c r="C26">
+        <v>1</v>
       </c>
       <c r="D26">
         <v>50000</v>
@@ -829,8 +793,8 @@
       <c r="B27" t="s">
         <v>5</v>
       </c>
-      <c r="C27" t="s">
-        <v>7</v>
+      <c r="C27">
+        <v>2</v>
       </c>
       <c r="D27">
         <v>50000</v>
@@ -843,8 +807,8 @@
       <c r="B28" t="s">
         <v>5</v>
       </c>
-      <c r="C28" t="s">
-        <v>8</v>
+      <c r="C28">
+        <v>3</v>
       </c>
       <c r="D28">
         <v>50000</v>
@@ -857,8 +821,8 @@
       <c r="B29" t="s">
         <v>5</v>
       </c>
-      <c r="C29" t="s">
-        <v>9</v>
+      <c r="C29">
+        <v>4</v>
       </c>
       <c r="D29">
         <v>50000</v>
@@ -871,8 +835,8 @@
       <c r="B30" t="s">
         <v>5</v>
       </c>
-      <c r="C30" t="s">
-        <v>10</v>
+      <c r="C30">
+        <v>5</v>
       </c>
       <c r="D30">
         <v>50000</v>
@@ -885,8 +849,8 @@
       <c r="B31" t="s">
         <v>5</v>
       </c>
-      <c r="C31" t="s">
-        <v>11</v>
+      <c r="C31">
+        <v>6</v>
       </c>
       <c r="D31">
         <v>50000</v>
@@ -899,8 +863,8 @@
       <c r="B32" t="s">
         <v>5</v>
       </c>
-      <c r="C32" t="s">
-        <v>12</v>
+      <c r="C32">
+        <v>7</v>
       </c>
       <c r="D32">
         <v>50000</v>
@@ -913,8 +877,8 @@
       <c r="B33" t="s">
         <v>5</v>
       </c>
-      <c r="C33" t="s">
-        <v>13</v>
+      <c r="C33">
+        <v>8</v>
       </c>
       <c r="D33">
         <v>50000</v>
@@ -927,8 +891,8 @@
       <c r="B34" t="s">
         <v>5</v>
       </c>
-      <c r="C34" t="s">
-        <v>14</v>
+      <c r="C34">
+        <v>9</v>
       </c>
       <c r="D34">
         <v>50000</v>
@@ -941,8 +905,8 @@
       <c r="B35" t="s">
         <v>5</v>
       </c>
-      <c r="C35" t="s">
-        <v>15</v>
+      <c r="C35">
+        <v>10</v>
       </c>
       <c r="D35">
         <v>50000</v>
@@ -955,8 +919,8 @@
       <c r="B36" t="s">
         <v>5</v>
       </c>
-      <c r="C36" t="s">
-        <v>16</v>
+      <c r="C36">
+        <v>11</v>
       </c>
       <c r="D36">
         <v>50000</v>
@@ -969,8 +933,8 @@
       <c r="B37" t="s">
         <v>5</v>
       </c>
-      <c r="C37" t="s">
-        <v>17</v>
+      <c r="C37">
+        <v>12</v>
       </c>
       <c r="D37">
         <v>50000</v>
@@ -983,8 +947,8 @@
       <c r="B38" t="s">
         <v>3</v>
       </c>
-      <c r="C38" t="s">
-        <v>6</v>
+      <c r="C38">
+        <v>1</v>
       </c>
       <c r="D38">
         <v>50000</v>
@@ -997,8 +961,8 @@
       <c r="B39" t="s">
         <v>3</v>
       </c>
-      <c r="C39" t="s">
-        <v>7</v>
+      <c r="C39">
+        <v>2</v>
       </c>
       <c r="D39">
         <v>50000</v>
@@ -1011,8 +975,8 @@
       <c r="B40" t="s">
         <v>3</v>
       </c>
-      <c r="C40" t="s">
-        <v>8</v>
+      <c r="C40">
+        <v>3</v>
       </c>
       <c r="D40">
         <v>50000</v>
@@ -1025,8 +989,8 @@
       <c r="B41" t="s">
         <v>3</v>
       </c>
-      <c r="C41" t="s">
-        <v>9</v>
+      <c r="C41">
+        <v>4</v>
       </c>
       <c r="D41">
         <v>50000</v>
@@ -1039,8 +1003,8 @@
       <c r="B42" t="s">
         <v>3</v>
       </c>
-      <c r="C42" t="s">
-        <v>10</v>
+      <c r="C42">
+        <v>5</v>
       </c>
       <c r="D42">
         <v>50000</v>
@@ -1053,8 +1017,8 @@
       <c r="B43" t="s">
         <v>3</v>
       </c>
-      <c r="C43" t="s">
-        <v>11</v>
+      <c r="C43">
+        <v>6</v>
       </c>
       <c r="D43">
         <v>50000</v>
@@ -1067,8 +1031,8 @@
       <c r="B44" t="s">
         <v>3</v>
       </c>
-      <c r="C44" t="s">
-        <v>12</v>
+      <c r="C44">
+        <v>7</v>
       </c>
       <c r="D44">
         <v>50000</v>
@@ -1081,8 +1045,8 @@
       <c r="B45" t="s">
         <v>3</v>
       </c>
-      <c r="C45" t="s">
-        <v>13</v>
+      <c r="C45">
+        <v>8</v>
       </c>
       <c r="D45">
         <v>50000</v>
@@ -1095,8 +1059,8 @@
       <c r="B46" t="s">
         <v>3</v>
       </c>
-      <c r="C46" t="s">
-        <v>14</v>
+      <c r="C46">
+        <v>9</v>
       </c>
       <c r="D46">
         <v>50000</v>
@@ -1109,8 +1073,8 @@
       <c r="B47" t="s">
         <v>3</v>
       </c>
-      <c r="C47" t="s">
-        <v>15</v>
+      <c r="C47">
+        <v>10</v>
       </c>
       <c r="D47">
         <v>50000</v>
@@ -1123,8 +1087,8 @@
       <c r="B48" t="s">
         <v>3</v>
       </c>
-      <c r="C48" t="s">
-        <v>16</v>
+      <c r="C48">
+        <v>11</v>
       </c>
       <c r="D48">
         <v>50000</v>
@@ -1137,8 +1101,8 @@
       <c r="B49" t="s">
         <v>3</v>
       </c>
-      <c r="C49" t="s">
-        <v>17</v>
+      <c r="C49">
+        <v>12</v>
       </c>
       <c r="D49">
         <v>50000</v>
@@ -1151,8 +1115,8 @@
       <c r="B50" t="s">
         <v>4</v>
       </c>
-      <c r="C50" t="s">
-        <v>6</v>
+      <c r="C50">
+        <v>1</v>
       </c>
       <c r="D50">
         <v>50000</v>
@@ -1165,8 +1129,8 @@
       <c r="B51" t="s">
         <v>4</v>
       </c>
-      <c r="C51" t="s">
-        <v>7</v>
+      <c r="C51">
+        <v>2</v>
       </c>
       <c r="D51">
         <v>50000</v>
@@ -1179,8 +1143,8 @@
       <c r="B52" t="s">
         <v>4</v>
       </c>
-      <c r="C52" t="s">
-        <v>8</v>
+      <c r="C52">
+        <v>3</v>
       </c>
       <c r="D52">
         <v>50000</v>
@@ -1193,8 +1157,8 @@
       <c r="B53" t="s">
         <v>4</v>
       </c>
-      <c r="C53" t="s">
-        <v>9</v>
+      <c r="C53">
+        <v>4</v>
       </c>
       <c r="D53">
         <v>50000</v>
@@ -1207,8 +1171,8 @@
       <c r="B54" t="s">
         <v>4</v>
       </c>
-      <c r="C54" t="s">
-        <v>10</v>
+      <c r="C54">
+        <v>5</v>
       </c>
       <c r="D54">
         <v>50000</v>
@@ -1221,8 +1185,8 @@
       <c r="B55" t="s">
         <v>4</v>
       </c>
-      <c r="C55" t="s">
-        <v>11</v>
+      <c r="C55">
+        <v>6</v>
       </c>
       <c r="D55">
         <v>50000</v>
@@ -1235,8 +1199,8 @@
       <c r="B56" t="s">
         <v>4</v>
       </c>
-      <c r="C56" t="s">
-        <v>12</v>
+      <c r="C56">
+        <v>7</v>
       </c>
       <c r="D56">
         <v>50000</v>
@@ -1249,8 +1213,8 @@
       <c r="B57" t="s">
         <v>4</v>
       </c>
-      <c r="C57" t="s">
-        <v>13</v>
+      <c r="C57">
+        <v>8</v>
       </c>
       <c r="D57">
         <v>50000</v>
@@ -1263,8 +1227,8 @@
       <c r="B58" t="s">
         <v>4</v>
       </c>
-      <c r="C58" t="s">
-        <v>14</v>
+      <c r="C58">
+        <v>9</v>
       </c>
       <c r="D58">
         <v>50000</v>
@@ -1277,8 +1241,8 @@
       <c r="B59" t="s">
         <v>4</v>
       </c>
-      <c r="C59" t="s">
-        <v>15</v>
+      <c r="C59">
+        <v>10</v>
       </c>
       <c r="D59">
         <v>50000</v>
@@ -1291,8 +1255,8 @@
       <c r="B60" t="s">
         <v>4</v>
       </c>
-      <c r="C60" t="s">
-        <v>16</v>
+      <c r="C60">
+        <v>11</v>
       </c>
       <c r="D60">
         <v>50000</v>
@@ -1305,8 +1269,8 @@
       <c r="B61" t="s">
         <v>4</v>
       </c>
-      <c r="C61" t="s">
-        <v>17</v>
+      <c r="C61">
+        <v>12</v>
       </c>
       <c r="D61">
         <v>50000</v>
@@ -1319,8 +1283,8 @@
       <c r="B62" t="s">
         <v>5</v>
       </c>
-      <c r="C62" t="s">
-        <v>6</v>
+      <c r="C62">
+        <v>1</v>
       </c>
       <c r="D62">
         <v>50000</v>
@@ -1333,8 +1297,8 @@
       <c r="B63" t="s">
         <v>5</v>
       </c>
-      <c r="C63" t="s">
-        <v>7</v>
+      <c r="C63">
+        <v>2</v>
       </c>
       <c r="D63">
         <v>50000</v>
@@ -1347,8 +1311,8 @@
       <c r="B64" t="s">
         <v>5</v>
       </c>
-      <c r="C64" t="s">
-        <v>8</v>
+      <c r="C64">
+        <v>3</v>
       </c>
       <c r="D64">
         <v>50000</v>
@@ -1361,8 +1325,8 @@
       <c r="B65" t="s">
         <v>5</v>
       </c>
-      <c r="C65" t="s">
-        <v>9</v>
+      <c r="C65">
+        <v>4</v>
       </c>
       <c r="D65">
         <v>50000</v>
@@ -1375,8 +1339,8 @@
       <c r="B66" t="s">
         <v>5</v>
       </c>
-      <c r="C66" t="s">
-        <v>10</v>
+      <c r="C66">
+        <v>5</v>
       </c>
       <c r="D66">
         <v>50000</v>
@@ -1389,8 +1353,8 @@
       <c r="B67" t="s">
         <v>5</v>
       </c>
-      <c r="C67" t="s">
-        <v>11</v>
+      <c r="C67">
+        <v>6</v>
       </c>
       <c r="D67">
         <v>50000</v>
@@ -1403,8 +1367,8 @@
       <c r="B68" t="s">
         <v>5</v>
       </c>
-      <c r="C68" t="s">
-        <v>12</v>
+      <c r="C68">
+        <v>7</v>
       </c>
       <c r="D68">
         <v>50000</v>
@@ -1417,8 +1381,8 @@
       <c r="B69" t="s">
         <v>5</v>
       </c>
-      <c r="C69" t="s">
-        <v>13</v>
+      <c r="C69">
+        <v>8</v>
       </c>
       <c r="D69">
         <v>50000</v>
@@ -1431,8 +1395,8 @@
       <c r="B70" t="s">
         <v>5</v>
       </c>
-      <c r="C70" t="s">
-        <v>14</v>
+      <c r="C70">
+        <v>9</v>
       </c>
       <c r="D70">
         <v>50000</v>
@@ -1445,8 +1409,8 @@
       <c r="B71" t="s">
         <v>5</v>
       </c>
-      <c r="C71" t="s">
-        <v>15</v>
+      <c r="C71">
+        <v>10</v>
       </c>
       <c r="D71">
         <v>50000</v>
@@ -1459,8 +1423,8 @@
       <c r="B72" t="s">
         <v>5</v>
       </c>
-      <c r="C72" t="s">
-        <v>16</v>
+      <c r="C72">
+        <v>11</v>
       </c>
       <c r="D72">
         <v>50000</v>
@@ -1473,8 +1437,8 @@
       <c r="B73" t="s">
         <v>5</v>
       </c>
-      <c r="C73" t="s">
-        <v>17</v>
+      <c r="C73">
+        <v>12</v>
       </c>
       <c r="D73">
         <v>50000</v>
